--- a/aerodynamic_properties/Thrust_input_data.xlsx
+++ b/aerodynamic_properties/Thrust_input_data.xlsx
@@ -4,22 +4,85 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Blad1" sheetId="1" r:id="rId1"/>
+    <sheet name="RefT" sheetId="1" r:id="rId1"/>
+    <sheet name="RefTs" sheetId="2" r:id="rId2"/>
+    <sheet name="FlightT" sheetId="3" r:id="rId3"/>
+    <sheet name="FlightTs" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="122211" iterateDelta="1E-4" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>T_l</t>
   </si>
   <si>
     <t>T_r</t>
+  </si>
+  <si>
+    <t>1356.78</t>
+  </si>
+  <si>
+    <t>1416.89</t>
+  </si>
+  <si>
+    <t>1470.21</t>
+  </si>
+  <si>
+    <t>1531.9</t>
+  </si>
+  <si>
+    <t>1312.8</t>
+  </si>
+  <si>
+    <t>1272.43</t>
+  </si>
+  <si>
+    <t>1199.79</t>
+  </si>
+  <si>
+    <t>1573.15</t>
+  </si>
+  <si>
+    <t>1856.13</t>
+  </si>
+  <si>
+    <t>1537.25</t>
+  </si>
+  <si>
+    <t>1825.04</t>
+  </si>
+  <si>
+    <t>1496.88</t>
+  </si>
+  <si>
+    <t>1781.85</t>
+  </si>
+  <si>
+    <t>1485.96</t>
+  </si>
+  <si>
+    <t>1773.7</t>
+  </si>
+  <si>
+    <t>1925.96</t>
+  </si>
+  <si>
+    <t>1660.28</t>
+  </si>
+  <si>
+    <t>1953.83</t>
+  </si>
+  <si>
+    <t>1690.59</t>
+  </si>
+  <si>
+    <t>1983.19</t>
   </si>
 </sst>
 </file>
@@ -385,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,10 +466,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5">
-        <v>3572.24</v>
+        <v>1940.08</v>
       </c>
       <c r="B2" s="1">
-        <v>3673.65</v>
+        <v>2115.33</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3"/>
@@ -414,10 +477,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
-        <v>2934.81</v>
+        <v>1982.49</v>
       </c>
       <c r="B3" s="1">
-        <v>2995.73</v>
+        <v>2161.8000000000002</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="3"/>
@@ -425,10 +488,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
-        <v>2360.5</v>
+        <v>2016.07</v>
       </c>
       <c r="B4" s="1">
-        <v>2485.58</v>
+        <v>2190.37</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="3"/>
@@ -436,10 +499,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
-        <v>1839.19</v>
+        <v>2049.41</v>
       </c>
       <c r="B5" s="1">
-        <v>1990.42</v>
+        <v>2234.1799999999998</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
@@ -447,10 +510,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
-        <v>1876.55</v>
+        <v>1906.6</v>
       </c>
       <c r="B6" s="1">
-        <v>2059</v>
+        <v>2079.1999999999998</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="3"/>
@@ -458,14 +521,259 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2194.5</v>
+        <v>1909</v>
       </c>
       <c r="B7" s="1">
-        <v>2390.15</v>
+        <v>2080.5300000000002</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
       <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1890.59</v>
+      </c>
+      <c r="B8">
+        <v>2052.04</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1356.78</v>
+      </c>
+      <c r="B2">
+        <v>1356.78</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1416.89</v>
+      </c>
+      <c r="B3">
+        <v>1416.89</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1470.21</v>
+      </c>
+      <c r="B4">
+        <v>1470.21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1531.9</v>
+      </c>
+      <c r="B5">
+        <v>1531.9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1312.8</v>
+      </c>
+      <c r="B6">
+        <v>1312.8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>1272.43</v>
+      </c>
+      <c r="B7">
+        <v>1272.43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>1199.79</v>
+      </c>
+      <c r="B8">
+        <v>1199.79</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H8" sqref="H8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>1624</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
